--- a/pred_ohlcv/54_21/2020-01-12 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DVP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-563933.8249465222</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-645693.3512465223</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-644564.3217465223</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-333439.9393465223</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-278289.6919465223</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-326182.1772465223</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-220297.6625465223</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-120297.6625465223</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-47363.73204652227</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2150454.474818042</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2165538.832318042</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2318607.068518042</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2318607.068518042</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2305262.091918042</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2296476.912018042</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2308976.912018042</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2289774.560818042</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2289924.560818042</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2227633.156818042</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2227753.156818042</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2227375.976218042</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2265475.976218042</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>3897847.389018042</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3897505.725518043</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3876385.351418043</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3875395.428518042</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3875494.428518042</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3989050.966518043</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4335481.670918043</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4949021.343418043</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4882368.048918043</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4882479.048918043</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4865386.362418043</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4823823.512718043</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5428286.957018043</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5059576.173918043</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5037857.025112164</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DVP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-563933.8249465222</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-645693.3512465223</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-644564.3217465223</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-645243.0973465223</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-270203.9393465223</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-153432.9097465223</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-159044.2350465223</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-278289.6919465223</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-326182.1772465223</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-220297.6625465223</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-120297.6625465223</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-47363.73204652227</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>58263.20655347773</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>771936.2756534776</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1811087.766553478</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2150454.474818042</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2165538.832318042</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2319901.646018042</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2372560.363418042</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2318607.068518042</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2318607.068518042</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2305262.091918042</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2296476.912018042</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2308976.912018042</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2289774.560818042</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2289924.560818042</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2227633.156818042</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2227753.156818042</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2227375.976218042</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2265475.976218042</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3897748.389018042</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3897505.725518043</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3876385.351418043</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>3875395.428518042</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3875494.428518042</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>3993328.880718043</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3989050.966518043</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>3985188.790518043</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3969594.960618043</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3966294.960618043</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
